--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>33.66289717210686</v>
+        <v>4.66502849849789</v>
       </c>
       <c r="R2">
-        <v>33.66289717210686</v>
+        <v>41.985256486481</v>
       </c>
       <c r="S2">
-        <v>0.8036604108383674</v>
+        <v>0.07698300367521853</v>
       </c>
       <c r="T2">
-        <v>0.8036604108383674</v>
+        <v>0.0769830036752185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N3">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q3">
-        <v>2.601145173448873</v>
+        <v>0.6043668157768889</v>
       </c>
       <c r="R3">
-        <v>2.601145173448873</v>
+        <v>5.439301341992</v>
       </c>
       <c r="S3">
-        <v>0.06209915290583776</v>
+        <v>0.009973352320379915</v>
       </c>
       <c r="T3">
-        <v>0.06209915290583776</v>
+        <v>0.009973352320379913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.277310786559931</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>0.277310786559931</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.57772146876226</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N4">
-        <v>4.57772146876226</v>
+        <v>1.289588</v>
       </c>
       <c r="O4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q4">
-        <v>1.269451541154745</v>
+        <v>0.3824455189195556</v>
       </c>
       <c r="R4">
-        <v>1.269451541154745</v>
+        <v>3.442009670276001</v>
       </c>
       <c r="S4">
-        <v>0.03030659963365147</v>
+        <v>0.006311173618346617</v>
       </c>
       <c r="T4">
-        <v>0.03030659963365147</v>
+        <v>0.006311173618346615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H5">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.353722320541402</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N5">
-        <v>0.353722320541402</v>
+        <v>15.730253</v>
       </c>
       <c r="O5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q5">
-        <v>0.09809101493314024</v>
+        <v>38.89871343358001</v>
       </c>
       <c r="R5">
-        <v>0.09809101493314024</v>
+        <v>350.08842090222</v>
       </c>
       <c r="S5">
-        <v>0.002341802755647548</v>
+        <v>0.6419124342290267</v>
       </c>
       <c r="T5">
-        <v>0.002341802755647548</v>
+        <v>0.6419124342290267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.862907975827176</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H6">
-        <v>0.862907975827176</v>
+        <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J6">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.57772146876226</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N6">
-        <v>4.57772146876226</v>
+        <v>2.037896</v>
       </c>
       <c r="O6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q6">
-        <v>3.950152366510249</v>
+        <v>5.03943150256</v>
       </c>
       <c r="R6">
-        <v>3.950152366510249</v>
+        <v>45.35488352304</v>
       </c>
       <c r="S6">
-        <v>0.09430504622086537</v>
+        <v>0.08316145850073717</v>
       </c>
       <c r="T6">
-        <v>0.09430504622086537</v>
+        <v>0.08316145850073717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.418580000000001</v>
+      </c>
+      <c r="H7">
+        <v>22.25574</v>
+      </c>
+      <c r="I7">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="J7">
+        <v>0.777698766101638</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.289588</v>
+      </c>
+      <c r="O7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q7">
+        <v>3.188970581680001</v>
+      </c>
+      <c r="R7">
+        <v>28.70073523512001</v>
+      </c>
+      <c r="S7">
+        <v>0.05262487337187407</v>
+      </c>
+      <c r="T7">
+        <v>0.05262487337187407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.298413</v>
+      </c>
+      <c r="H8">
+        <v>0.895239</v>
+      </c>
+      <c r="I8">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J8">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N8">
+        <v>15.730253</v>
+      </c>
+      <c r="O8">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P8">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q8">
+        <v>1.564703996163</v>
+      </c>
+      <c r="R8">
+        <v>14.082335965467</v>
+      </c>
+      <c r="S8">
+        <v>0.0258209812707535</v>
+      </c>
+      <c r="T8">
+        <v>0.0258209812707535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.298413</v>
+      </c>
+      <c r="H9">
+        <v>0.895239</v>
+      </c>
+      <c r="I9">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J9">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.037896</v>
+      </c>
+      <c r="O9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q9">
+        <v>0.202711553016</v>
+      </c>
+      <c r="R9">
+        <v>1.824403977144</v>
+      </c>
+      <c r="S9">
+        <v>0.003345176612718401</v>
+      </c>
+      <c r="T9">
+        <v>0.003345176612718402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.298413</v>
+      </c>
+      <c r="H10">
+        <v>0.895239</v>
+      </c>
+      <c r="I10">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J10">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.289588</v>
+      </c>
+      <c r="O10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q10">
+        <v>0.128276607948</v>
+      </c>
+      <c r="R10">
+        <v>1.154489471532</v>
+      </c>
+      <c r="S10">
+        <v>0.002116839925905099</v>
+      </c>
+      <c r="T10">
+        <v>0.0021168399259051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H7">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I7">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J7">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="N7">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="O7">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="P7">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="Q7">
-        <v>0.3052298116232727</v>
-      </c>
-      <c r="R7">
-        <v>0.3052298116232727</v>
-      </c>
-      <c r="S7">
-        <v>0.007286987645630626</v>
-      </c>
-      <c r="T7">
-        <v>0.007286987645630626</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.797374</v>
+      </c>
+      <c r="I11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.730253</v>
+      </c>
+      <c r="O11">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P11">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q11">
+        <v>4.889266750624667</v>
+      </c>
+      <c r="R11">
+        <v>44.003400755622</v>
+      </c>
+      <c r="S11">
+        <v>0.08068341712245872</v>
+      </c>
+      <c r="T11">
+        <v>0.0806834171224587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.797374</v>
+      </c>
+      <c r="I12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.037896</v>
+      </c>
+      <c r="O12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q12">
+        <v>0.6334174761226667</v>
+      </c>
+      <c r="R12">
+        <v>5.700757285104001</v>
+      </c>
+      <c r="S12">
+        <v>0.01045275069766457</v>
+      </c>
+      <c r="T12">
+        <v>0.01045275069766457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.797374</v>
+      </c>
+      <c r="I13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.289588</v>
+      </c>
+      <c r="O13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q13">
+        <v>0.4008288824346668</v>
+      </c>
+      <c r="R13">
+        <v>3.607459941912001</v>
+      </c>
+      <c r="S13">
+        <v>0.006614538654916568</v>
+      </c>
+      <c r="T13">
+        <v>0.006614538654916568</v>
       </c>
     </row>
   </sheetData>
